--- a/outputs-HGR-r202/g__UMGS911.xlsx
+++ b/outputs-HGR-r202/g__UMGS911.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10102.fa</t>
+          <t>even_MAG-GUT10512.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.841182231980147</v>
+        <v>0.7706330587417027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1588177680197168</v>
+        <v>0.2293669412577413</v>
       </c>
       <c r="D2" t="n">
-        <v>1.361415944222736e-13</v>
+        <v>5.560020346005332e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.841182231980147</v>
+        <v>0.7706330587417027</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -532,20 +532,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11449.fa</t>
+          <t>even_MAG-GUT11752.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8203057347319865</v>
+        <v>0.9214525322038636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1796942652679355</v>
+        <v>0.07854746779580328</v>
       </c>
       <c r="D4" t="n">
-        <v>7.797041213495943e-14</v>
+        <v>3.331698757175524e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8203057347319865</v>
+        <v>0.9214525322038636</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -561,20 +561,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11752.fa</t>
+          <t>even_MAG-GUT13851.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9214525322038636</v>
+        <v>0.9246514743039753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07854746779580328</v>
+        <v>0.07534852569589105</v>
       </c>
       <c r="D5" t="n">
-        <v>3.331698757175524e-13</v>
+        <v>1.335820137229733e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9214525322038636</v>
+        <v>0.9246514743039753</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,20 +590,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12186.fa</t>
+          <t>even_MAG-GUT14640.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8409460734895605</v>
+        <v>0.9535097916448746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15905392651034</v>
+        <v>0.04649020835493099</v>
       </c>
       <c r="D6" t="n">
-        <v>9.953523932756868e-14</v>
+        <v>1.944015245796729e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8409460734895605</v>
+        <v>0.9535097916448746</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13851.fa</t>
+          <t>even_MAG-GUT15486.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9246514743039753</v>
+        <v>0.9587873134734395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07534852569589105</v>
+        <v>0.04121268652640715</v>
       </c>
       <c r="D7" t="n">
-        <v>1.335820137229733e-13</v>
+        <v>1.534016582638443e-13</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9246514743039753</v>
+        <v>0.9587873134734395</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,20 +648,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14640.fa</t>
+          <t>even_MAG-GUT15605.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9535097916448746</v>
+        <v>0.904433119767081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04649020835493099</v>
+        <v>0.0955668802328099</v>
       </c>
       <c r="D8" t="n">
-        <v>1.944015245796729e-13</v>
+        <v>1.091575356243074e-13</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9535097916448746</v>
+        <v>0.904433119767081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15486.fa</t>
+          <t>even_MAG-GUT17793.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9587873134734395</v>
+        <v>0.8772739404861799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04121268652640715</v>
+        <v>0.1227260595134716</v>
       </c>
       <c r="D9" t="n">
-        <v>1.534016582638443e-13</v>
+        <v>3.485115005410648e-13</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9587873134734395</v>
+        <v>0.8772739404861799</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -706,20 +706,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15605.fa</t>
+          <t>even_MAG-GUT18125.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.904433119767081</v>
+        <v>0.8873202983747686</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0955668802328099</v>
+        <v>0.1126797016240563</v>
       </c>
       <c r="D10" t="n">
-        <v>1.091575356243074e-13</v>
+        <v>1.175047290200976e-12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.904433119767081</v>
+        <v>0.8873202983747686</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -735,20 +735,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16017.fa</t>
+          <t>even_MAG-GUT19738.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8838682189319884</v>
+        <v>0.8275390322151946</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1161317810679177</v>
+        <v>0.1724609677846527</v>
       </c>
       <c r="D11" t="n">
-        <v>9.381181772915175e-14</v>
+        <v>1.526102521804236e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8838682189319884</v>
+        <v>0.8275390322151946</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16117.fa</t>
+          <t>even_MAG-GUT20624.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8375631094797623</v>
+        <v>0.8959612330275694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1624368905201138</v>
+        <v>0.1040387669722306</v>
       </c>
       <c r="D12" t="n">
-        <v>1.237614902122418e-13</v>
+        <v>2.000672886159322e-13</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8375631094797623</v>
+        <v>0.8959612330275694</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17793.fa</t>
+          <t>even_MAG-GUT21972.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8772739404861799</v>
+        <v>0.9691210277318272</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1227260595134716</v>
+        <v>0.0308789722676711</v>
       </c>
       <c r="D13" t="n">
-        <v>3.485115005410648e-13</v>
+        <v>5.017144055861728e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8772739404861799</v>
+        <v>0.9691210277318272</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18125.fa</t>
+          <t>even_MAG-GUT22502.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8873202983747686</v>
+        <v>0.7695034587377848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1126797016240563</v>
+        <v>0.2304965412621405</v>
       </c>
       <c r="D14" t="n">
-        <v>1.175047290200976e-12</v>
+        <v>7.460407442603792e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8873202983747686</v>
+        <v>0.7695034587377848</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18577.fa</t>
+          <t>even_MAG-GUT24642.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7154749943634826</v>
+        <v>0.9692665402644781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.284525005636426</v>
+        <v>0.03073345973535813</v>
       </c>
       <c r="D15" t="n">
-        <v>9.137640511600174e-14</v>
+        <v>1.638509197564094e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7154749943634826</v>
+        <v>0.9692665402644781</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,27 +873,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19738.fa</t>
+          <t>even_MAG-GUT24686.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8275390322151946</v>
+        <v>0.917467079640221</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1724609677846527</v>
+        <v>0.08253292035964849</v>
       </c>
       <c r="D16" t="n">
-        <v>1.526102521804236e-13</v>
+        <v>1.304730769760061e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8275390322151946</v>
+        <v>0.917467079640221</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -909,20 +909,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20624.fa</t>
+          <t>even_MAG-GUT26059.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8959612330275694</v>
+        <v>0.9350594462871874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1040387669722306</v>
+        <v>0.06494055371247563</v>
       </c>
       <c r="D17" t="n">
-        <v>2.000672886159322e-13</v>
+        <v>3.370113288279706e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8959612330275694</v>
+        <v>0.9350594462871874</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21972.fa</t>
+          <t>even_MAG-GUT2655.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9691210277318272</v>
+        <v>0.9161389732668687</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0308789722676711</v>
+        <v>0.08386102673292441</v>
       </c>
       <c r="D18" t="n">
-        <v>5.017144055861728e-13</v>
+        <v>2.068461120329174e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9691210277318272</v>
+        <v>0.9161389732668687</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22502.fa</t>
+          <t>even_MAG-GUT26757.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7695034587377848</v>
+        <v>0.8972447850865906</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2304965412621405</v>
+        <v>0.102755214913152</v>
       </c>
       <c r="D19" t="n">
-        <v>7.460407442603792e-14</v>
+        <v>2.574174499099637e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7695034587377848</v>
+        <v>0.8972447850865906</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24642.fa</t>
+          <t>even_MAG-GUT27132.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9692665402644781</v>
+        <v>0.7496152093500918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03073345973535813</v>
+        <v>0.2503847906498372</v>
       </c>
       <c r="D20" t="n">
-        <v>1.638509197564094e-13</v>
+        <v>7.097742740196221e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9692665402644781</v>
+        <v>0.7496152093500918</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24686.fa</t>
+          <t>even_MAG-GUT27144.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.917467079640221</v>
+        <v>0.9520586398424176</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08253292035964849</v>
+        <v>0.04794136015725158</v>
       </c>
       <c r="D21" t="n">
-        <v>1.304730769760061e-13</v>
+        <v>3.308740253169133e-13</v>
       </c>
       <c r="E21" t="n">
-        <v>0.917467079640221</v>
+        <v>0.9520586398424176</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25808.fa</t>
+          <t>even_MAG-GUT28099.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7646300439373207</v>
+        <v>0.919518137426188</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2353699560626065</v>
+        <v>0.08048186257305032</v>
       </c>
       <c r="D22" t="n">
-        <v>7.281260506468546e-14</v>
+        <v>7.615385491192658e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7646300439373207</v>
+        <v>0.919518137426188</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26059.fa</t>
+          <t>even_MAG-GUT28110.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9350594462871874</v>
+        <v>0.8890160295565184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06494055371247563</v>
+        <v>0.1109839704431958</v>
       </c>
       <c r="D23" t="n">
-        <v>3.370113288279706e-13</v>
+        <v>2.858082487171753e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9350594462871874</v>
+        <v>0.8890160295565184</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2655.fa</t>
+          <t>even_MAG-GUT28130.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9161389732668687</v>
+        <v>0.8593581909983288</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08386102673292441</v>
+        <v>0.14064180900137</v>
       </c>
       <c r="D24" t="n">
-        <v>2.068461120329174e-13</v>
+        <v>3.011868066992781e-13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9161389732668687</v>
+        <v>0.8593581909983288</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26757.fa</t>
+          <t>even_MAG-GUT30604.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8972447850865906</v>
+        <v>0.9357752320746671</v>
       </c>
       <c r="C25" t="n">
-        <v>0.102755214913152</v>
+        <v>0.06422476792518793</v>
       </c>
       <c r="D25" t="n">
-        <v>2.574174499099637e-13</v>
+        <v>1.450613888470168e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8972447850865906</v>
+        <v>0.9357752320746671</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27132.fa</t>
+          <t>even_MAG-GUT32583.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7496152093500918</v>
+        <v>0.9683758145218337</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2503847906498372</v>
+        <v>0.03162418547800922</v>
       </c>
       <c r="D26" t="n">
-        <v>7.097742740196221e-14</v>
+        <v>1.570807840727448e-13</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7496152093500918</v>
+        <v>0.9683758145218337</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1199,20 +1199,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27144.fa</t>
+          <t>even_MAG-GUT32792.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9520586398424176</v>
+        <v>0.9259135437618732</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04794136015725158</v>
+        <v>0.07408645623800141</v>
       </c>
       <c r="D27" t="n">
-        <v>3.308740253169133e-13</v>
+        <v>1.253278526700684e-13</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9520586398424176</v>
+        <v>0.9259135437618732</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27426.fa</t>
+          <t>even_MAG-GUT33415.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6924495781327471</v>
+        <v>0.8751197692182709</v>
       </c>
       <c r="C28" t="n">
-        <v>0.307550421867199</v>
+        <v>0.1248802307815063</v>
       </c>
       <c r="D28" t="n">
-        <v>5.383179500494249e-14</v>
+        <v>2.227610818055899e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6924495781327471</v>
+        <v>0.8751197692182709</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1250,27 +1250,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27436.fa</t>
+          <t>even_MAG-GUT33906.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8715509029113099</v>
+        <v>0.8945464573551773</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1284490970886139</v>
+        <v>0.105453542644736</v>
       </c>
       <c r="D29" t="n">
-        <v>7.626938207273341e-14</v>
+        <v>8.669036739253129e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8715509029113099</v>
+        <v>0.8945464573551773</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,20 +1286,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28099.fa</t>
+          <t>even_MAG-GUT34183.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.919518137426188</v>
+        <v>0.8499809662824254</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08048186257305032</v>
+        <v>0.1500190337174405</v>
       </c>
       <c r="D30" t="n">
-        <v>7.615385491192658e-13</v>
+        <v>1.34150191137198e-13</v>
       </c>
       <c r="E30" t="n">
-        <v>0.919518137426188</v>
+        <v>0.8499809662824254</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1315,20 +1315,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28110.fa</t>
+          <t>even_MAG-GUT34689.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8890160295565184</v>
+        <v>0.9323502891817461</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1109839704431958</v>
+        <v>0.06764971081812825</v>
       </c>
       <c r="D31" t="n">
-        <v>2.858082487171753e-13</v>
+        <v>1.256955787616797e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8890160295565184</v>
+        <v>0.9323502891817461</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28130.fa</t>
+          <t>even_MAG-GUT36712.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8593581909983288</v>
+        <v>0.978385127832594</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14064180900137</v>
+        <v>0.02161487216724978</v>
       </c>
       <c r="D32" t="n">
-        <v>3.011868066992781e-13</v>
+        <v>1.561562111767409e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8593581909983288</v>
+        <v>0.978385127832594</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29784.fa</t>
+          <t>even_MAG-GUT36962.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.7677000757076311</v>
+        <v>0.9092258090961969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2322999242922722</v>
+        <v>0.09077419090339606</v>
       </c>
       <c r="D33" t="n">
-        <v>9.675585708133771e-14</v>
+        <v>4.07113653323383e-13</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7677000757076311</v>
+        <v>0.9092258090961969</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1402,20 +1402,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30604.fa</t>
+          <t>even_MAG-GUT37950.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9357752320746671</v>
+        <v>0.9045673251801625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06422476792518793</v>
+        <v>0.09543267481932412</v>
       </c>
       <c r="D34" t="n">
-        <v>1.450613888470168e-13</v>
+        <v>5.133441941767519e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9357752320746671</v>
+        <v>0.9045673251801625</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1431,20 +1431,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32583.fa</t>
+          <t>even_MAG-GUT39078.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9683758145218337</v>
+        <v>0.9446235827797653</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03162418547800922</v>
+        <v>0.05537641722000854</v>
       </c>
       <c r="D35" t="n">
-        <v>1.570807840727448e-13</v>
+        <v>2.261104230200809e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9683758145218337</v>
+        <v>0.9446235827797653</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32792.fa</t>
+          <t>even_MAG-GUT39373.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9259135437618732</v>
+        <v>0.9531463564815222</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07408645623800141</v>
+        <v>0.04685364351835903</v>
       </c>
       <c r="D36" t="n">
-        <v>1.253278526700684e-13</v>
+        <v>1.187057202232812e-13</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9259135437618732</v>
+        <v>0.9531463564815222</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1489,20 +1489,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33415.fa</t>
+          <t>even_MAG-GUT40620.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8751197692182709</v>
+        <v>0.9403427256078262</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1248802307815063</v>
+        <v>0.05965727439194154</v>
       </c>
       <c r="D37" t="n">
-        <v>2.227610818055899e-13</v>
+        <v>2.323337354234502e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8751197692182709</v>
+        <v>0.9403427256078262</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1518,20 +1518,20 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33906.fa</t>
+          <t>even_MAG-GUT41197.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.8945464573551773</v>
+        <v>0.9085231237342314</v>
       </c>
       <c r="C38" t="n">
-        <v>0.105453542644736</v>
+        <v>0.09147687626529032</v>
       </c>
       <c r="D38" t="n">
-        <v>8.669036739253129e-14</v>
+        <v>4.782504951922579e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8945464573551773</v>
+        <v>0.9085231237342314</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1547,20 +1547,20 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34183.fa</t>
+          <t>even_MAG-GUT41616.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.8499809662824254</v>
+        <v>0.9487756298216899</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1500190337174405</v>
+        <v>0.05122437017809635</v>
       </c>
       <c r="D39" t="n">
-        <v>1.34150191137198e-13</v>
+        <v>2.138005015339759e-13</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8499809662824254</v>
+        <v>0.9487756298216899</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1576,49 +1576,49 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34569.fa</t>
+          <t>even_MAG-GUT42317.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9213939291722637</v>
+        <v>0.2920491514091538</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07860607082761047</v>
+        <v>0.2497662008675669</v>
       </c>
       <c r="D40" t="n">
-        <v>1.258477854775015e-13</v>
+        <v>0.4581846477232793</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9213939291722637</v>
+        <v>0.4581846477232793</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900557415</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900557415(reject)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34592.fa</t>
+          <t>even_MAG-GUT42455.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8102424514230009</v>
+        <v>0.8547531745366806</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1897575485768735</v>
+        <v>0.1452468254630752</v>
       </c>
       <c r="D41" t="n">
-        <v>1.256008464544938e-13</v>
+        <v>2.442087278321827e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8102424514230009</v>
+        <v>0.8547531745366806</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1634,20 +1634,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34689.fa</t>
+          <t>even_MAG-GUT42829.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9323502891817461</v>
+        <v>0.7534492310966375</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06764971081812825</v>
+        <v>0.2465507689032621</v>
       </c>
       <c r="D42" t="n">
-        <v>1.256955787616797e-13</v>
+        <v>1.005244969224125e-13</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9323502891817461</v>
+        <v>0.7534492310966375</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36712.fa</t>
+          <t>even_MAG-GUT45058.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.978385127832594</v>
+        <v>0.9722319832596172</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02161487216724978</v>
+        <v>0.02776801674016404</v>
       </c>
       <c r="D43" t="n">
-        <v>1.561562111767409e-13</v>
+        <v>2.186948289389234e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978385127832594</v>
+        <v>0.9722319832596172</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1692,20 +1692,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36962.fa</t>
+          <t>even_MAG-GUT4602.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9092258090961969</v>
+        <v>0.8667338506250583</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09077419090339606</v>
+        <v>0.1332661493747816</v>
       </c>
       <c r="D44" t="n">
-        <v>4.07113653323383e-13</v>
+        <v>1.601838824195121e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9092258090961969</v>
+        <v>0.8667338506250583</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37950.fa</t>
+          <t>even_MAG-GUT47959.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9045673251801625</v>
+        <v>0.8027086401738299</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09543267481932412</v>
+        <v>0.1972913598260788</v>
       </c>
       <c r="D45" t="n">
-        <v>5.133441941767519e-13</v>
+        <v>9.128654573114708e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9045673251801625</v>
+        <v>0.8027086401738299</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1750,20 +1750,20 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39078.fa</t>
+          <t>even_MAG-GUT50760.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9446235827797653</v>
+        <v>0.941780208501992</v>
       </c>
       <c r="C46" t="n">
-        <v>0.05537641722000854</v>
+        <v>0.0582197914978713</v>
       </c>
       <c r="D46" t="n">
-        <v>2.261104230200809e-13</v>
+        <v>1.367640488309581e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9446235827797653</v>
+        <v>0.941780208501992</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1779,20 +1779,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39373.fa</t>
+          <t>even_MAG-GUT5376.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9531463564815222</v>
+        <v>0.7763636072038387</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04685364351835903</v>
+        <v>0.2236363927951611</v>
       </c>
       <c r="D47" t="n">
-        <v>1.187057202232812e-13</v>
+        <v>1.00017312134223e-12</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9531463564815222</v>
+        <v>0.7763636072038387</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1808,20 +1808,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40620.fa</t>
+          <t>even_MAG-GUT54489.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9403427256078262</v>
+        <v>0.938684891873956</v>
       </c>
       <c r="C48" t="n">
-        <v>0.05965727439194154</v>
+        <v>0.06131510812592377</v>
       </c>
       <c r="D48" t="n">
-        <v>2.323337354234502e-13</v>
+        <v>1.202342148230755e-13</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9403427256078262</v>
+        <v>0.938684891873956</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1837,20 +1837,20 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40638.fa</t>
+          <t>even_MAG-GUT56762.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9103240813504414</v>
+        <v>0.9481053465867939</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08967591864934844</v>
+        <v>0.05189465341303255</v>
       </c>
       <c r="D49" t="n">
-        <v>2.100615924346882e-13</v>
+        <v>1.735405321555148e-13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9103240813504414</v>
+        <v>0.9481053465867939</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41197.fa</t>
+          <t>even_MAG-GUT56896.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9085231237342314</v>
+        <v>0.9494085757501017</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09147687626529032</v>
+        <v>0.05059142424972266</v>
       </c>
       <c r="D50" t="n">
-        <v>4.782504951922579e-13</v>
+        <v>1.755685833273275e-13</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9085231237342314</v>
+        <v>0.9494085757501017</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1895,20 +1895,20 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41616.fa</t>
+          <t>even_MAG-GUT5720.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9487756298216899</v>
+        <v>0.7949837584682751</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05122437017809635</v>
+        <v>0.205016241531663</v>
       </c>
       <c r="D51" t="n">
-        <v>2.138005015339759e-13</v>
+        <v>6.184377856116742e-14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9487756298216899</v>
+        <v>0.7949837584682751</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1924,49 +1924,49 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42317.fa</t>
+          <t>even_MAG-GUT58689.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2920491514091538</v>
+        <v>0.8880662390119017</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2497662008675669</v>
+        <v>0.1119337609879227</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4581846477232793</v>
+        <v>1.755216694786305e-13</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4581846477232793</v>
+        <v>0.8880662390119017</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900557415</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900557415(reject)</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42455.fa</t>
+          <t>even_MAG-GUT5994.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.8547531745366806</v>
+        <v>0.6052699475502429</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1452468254630752</v>
+        <v>0.3947300524491823</v>
       </c>
       <c r="D53" t="n">
-        <v>2.442087278321827e-13</v>
+        <v>5.748878671561718e-13</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8547531745366806</v>
+        <v>0.6052699475502429</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1975,27 +1975,27 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42829.fa</t>
+          <t>even_MAG-GUT60838.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7534492310966375</v>
+        <v>0.9208034142235761</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2465507689032621</v>
+        <v>0.07919658577626462</v>
       </c>
       <c r="D54" t="n">
-        <v>1.005244969224125e-13</v>
+        <v>1.593730188758407e-13</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7534492310966375</v>
+        <v>0.9208034142235761</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2011,20 +2011,20 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45058.fa</t>
+          <t>even_MAG-GUT61546.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9722319832596172</v>
+        <v>0.9382542987204945</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02776801674016404</v>
+        <v>0.06174570127937656</v>
       </c>
       <c r="D55" t="n">
-        <v>2.186948289389234e-13</v>
+        <v>1.290509864810704e-13</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9722319832596172</v>
+        <v>0.9382542987204945</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4564.fa</t>
+          <t>even_MAG-GUT62011.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8466221317609465</v>
+        <v>0.9581072592716122</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1533778682389046</v>
+        <v>0.04189274072823244</v>
       </c>
       <c r="D56" t="n">
-        <v>1.489446724957152e-13</v>
+        <v>1.553684233828531e-13</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8466221317609465</v>
+        <v>0.9581072592716122</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2069,20 +2069,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4602.fa</t>
+          <t>even_MAG-GUT62413.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.8667338506250583</v>
+        <v>0.818457675004547</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1332661493747816</v>
+        <v>0.1815423249953541</v>
       </c>
       <c r="D57" t="n">
-        <v>1.601838824195121e-13</v>
+        <v>9.880227382818722e-14</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8667338506250583</v>
+        <v>0.818457675004547</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2098,20 +2098,20 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47959.fa</t>
+          <t>even_MAG-GUT71501.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8027086401738299</v>
+        <v>0.935739559831225</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1972913598260788</v>
+        <v>0.06426044016858858</v>
       </c>
       <c r="D58" t="n">
-        <v>9.128654573114708e-14</v>
+        <v>1.864693796584972e-13</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8027086401738299</v>
+        <v>0.935739559831225</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2127,20 +2127,20 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50522.fa</t>
+          <t>even_MAG-GUT74537.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9452930977197473</v>
+        <v>0.9553450635688105</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05470690228006812</v>
+        <v>0.0446549364309418</v>
       </c>
       <c r="D59" t="n">
-        <v>1.845638647343331e-13</v>
+        <v>2.476144497635229e-13</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9452930977197473</v>
+        <v>0.9553450635688105</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2156,20 +2156,20 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50532.fa</t>
+          <t>even_MAG-GUT77913.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9452930977197473</v>
+        <v>0.9369230446288823</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05470690228006812</v>
+        <v>0.06307695537093645</v>
       </c>
       <c r="D60" t="n">
-        <v>1.845638647343331e-13</v>
+        <v>1.812800787003493e-13</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9452930977197473</v>
+        <v>0.9369230446288823</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2185,20 +2185,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5060.fa</t>
+          <t>even_MAG-GUT78681.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.7213826279342587</v>
+        <v>0.8629226105617409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2786173720656134</v>
+        <v>0.1370773894381891</v>
       </c>
       <c r="D61" t="n">
-        <v>1.280364308323248e-13</v>
+        <v>6.991694002498387e-14</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7213826279342587</v>
+        <v>0.8629226105617409</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2207,27 +2207,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
+          <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50714.fa</t>
+          <t>even_MAG-GUT78914.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9069849643224885</v>
+        <v>0.8652701180404413</v>
       </c>
       <c r="C62" t="n">
-        <v>0.09301503567738124</v>
+        <v>0.1347298819588924</v>
       </c>
       <c r="D62" t="n">
-        <v>1.303107142483035e-13</v>
+        <v>6.663938378768075e-13</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9069849643224885</v>
+        <v>0.8652701180404413</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2243,20 +2243,20 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50760.fa</t>
+          <t>even_MAG-GUT79275.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.941780208501992</v>
+        <v>0.562872587679658</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0582197914978713</v>
+        <v>0.4371274123202291</v>
       </c>
       <c r="D63" t="n">
-        <v>1.367640488309581e-13</v>
+        <v>1.130173319471862e-13</v>
       </c>
       <c r="E63" t="n">
-        <v>0.941780208501992</v>
+        <v>0.562872587679658</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2265,27 +2265,27 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53548.fa</t>
+          <t>even_MAG-GUT79312.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8320628815789721</v>
+        <v>0.9227450736259248</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1679371184209024</v>
+        <v>0.07725492637393025</v>
       </c>
       <c r="D64" t="n">
-        <v>1.255371344154342e-13</v>
+        <v>1.449197256507774e-13</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8320628815789721</v>
+        <v>0.9227450736259248</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2301,20 +2301,20 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5376.fa</t>
+          <t>even_MAG-GUT79767.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.7763636072038387</v>
+        <v>0.9342088064199728</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2236363927951611</v>
+        <v>0.06579119357973143</v>
       </c>
       <c r="D65" t="n">
-        <v>1.00017312134223e-12</v>
+        <v>2.958355211820393e-13</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7763636072038387</v>
+        <v>0.9342088064199728</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2330,20 +2330,20 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54489.fa</t>
+          <t>even_MAG-GUT8128.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.938684891873956</v>
+        <v>0.7259899907319136</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06131510812592377</v>
+        <v>0.2740100092673683</v>
       </c>
       <c r="D66" t="n">
-        <v>1.202342148230755e-13</v>
+        <v>7.180410588364487e-13</v>
       </c>
       <c r="E66" t="n">
-        <v>0.938684891873956</v>
+        <v>0.7259899907319136</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2352,27 +2352,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56644.fa</t>
+          <t>even_MAG-GUT82014.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9138962503530561</v>
+        <v>0.9343340492566037</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08610374964677579</v>
+        <v>0.06566595074328023</v>
       </c>
       <c r="D67" t="n">
-        <v>1.681629872351139e-13</v>
+        <v>1.160607060119574e-13</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9138962503530561</v>
+        <v>0.9343340492566037</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2388,20 +2388,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56762.fa</t>
+          <t>even_MAG-GUT83117.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9481053465867939</v>
+        <v>0.9098707688442281</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05189465341303255</v>
+        <v>0.09012923115557427</v>
       </c>
       <c r="D68" t="n">
-        <v>1.735405321555148e-13</v>
+        <v>1.975566211253464e-13</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9481053465867939</v>
+        <v>0.9098707688442281</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2417,20 +2417,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56896.fa</t>
+          <t>even_MAG-GUT83561.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9494085757501017</v>
+        <v>0.933655381348318</v>
       </c>
       <c r="C69" t="n">
-        <v>0.05059142424972266</v>
+        <v>0.0663446186514854</v>
       </c>
       <c r="D69" t="n">
-        <v>1.755685833273275e-13</v>
+        <v>1.965146390648522e-13</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9494085757501017</v>
+        <v>0.933655381348318</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2446,20 +2446,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57018.fa</t>
+          <t>even_MAG-GUT83564.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.8493162581674601</v>
+        <v>0.838231805453646</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1506837418324143</v>
+        <v>0.1617681945461528</v>
       </c>
       <c r="D70" t="n">
-        <v>1.255226861515815e-13</v>
+        <v>2.011670553125542e-13</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8493162581674601</v>
+        <v>0.838231805453646</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2475,20 +2475,20 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5720.fa</t>
+          <t>even_MAG-GUT84532.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.7949837584682751</v>
+        <v>0.9004835202493586</v>
       </c>
       <c r="C71" t="n">
-        <v>0.205016241531663</v>
+        <v>0.09951647975025107</v>
       </c>
       <c r="D71" t="n">
-        <v>6.184377856116742e-14</v>
+        <v>3.90338589295762e-13</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7949837584682751</v>
+        <v>0.9004835202493586</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2504,20 +2504,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58689.fa</t>
+          <t>even_MAG-GUT86544.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8880662390119017</v>
+        <v>0.7755809784622236</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1119337609879227</v>
+        <v>0.2244190215376864</v>
       </c>
       <c r="D72" t="n">
-        <v>1.755216694786305e-13</v>
+        <v>9.006666084243356e-14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8880662390119017</v>
+        <v>0.7755809784622236</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2525,818 +2525,6 @@
         </is>
       </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5914.fa</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.8707120687758638</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.129287931224009</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.271229981620966e-13</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.8707120687758638</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5994.fa</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.6052699475502429</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.3947300524491823</v>
-      </c>
-      <c r="D74" t="n">
-        <v>5.748878671561718e-13</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.6052699475502429</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60838.fa</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9208034142235761</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.07919658577626462</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.593730188758407e-13</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9208034142235761</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61101.fa</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9383733762797246</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.0616266237201261</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.492320460480068e-13</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9383733762797246</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61546.fa</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9382542987204945</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.06174570127937656</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.290509864810704e-13</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9382542987204945</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62011.fa</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9581072592716122</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.04189274072823244</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.553684233828531e-13</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.9581072592716122</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62413.fa</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.818457675004547</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.1815423249953541</v>
-      </c>
-      <c r="D79" t="n">
-        <v>9.880227382818722e-14</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.818457675004547</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71501.fa</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.935739559831225</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.06426044016858858</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.864693796584972e-13</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.935739559831225</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73018.fa</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5379466614027243</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.4620533385969473</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.28401589640849e-13</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.5379466614027243</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74537.fa</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.9553450635688105</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.0446549364309418</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2.476144497635229e-13</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9553450635688105</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT76200.fa</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.9224356334624165</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.07756436653743638</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.470068148082626e-13</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.9224356334624165</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77913.fa</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.9369230446288823</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.06307695537093645</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.812800787003493e-13</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.9369230446288823</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78247.fa</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.7598573002893851</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.2401426997102541</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3.607468482287787e-13</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.7598573002893851</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78280.fa</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.7513382060106608</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.248661793988706</v>
-      </c>
-      <c r="D86" t="n">
-        <v>6.331611450962436e-13</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.7513382060106608</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78377.fa</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.7513382060106608</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.248661793988706</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.331611450962436e-13</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.7513382060106608</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78681.fa</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.8629226105617409</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.1370773894381891</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.991694002498387e-14</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.8629226105617409</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78914.fa</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.8652701180404413</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.1347298819588924</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6.663938378768075e-13</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.8652701180404413</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79275.fa</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.562872587679658</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4371274123202291</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.130173319471862e-13</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.562872587679658</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79312.fa</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.9227450736259248</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.07725492637393025</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.449197256507774e-13</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.9227450736259248</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT79767.fa</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.9342088064199728</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.06579119357973143</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2.958355211820393e-13</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.9342088064199728</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8128.fa</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.7259899907319136</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.2740100092673683</v>
-      </c>
-      <c r="D93" t="n">
-        <v>7.180410588364487e-13</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.7259899907319136</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82014.fa</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.9343340492566037</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.06566595074328023</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.160607060119574e-13</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.9343340492566037</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82239.fa</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.8880348927975861</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.1119651072022904</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.235317631274895e-13</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.8880348927975861</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83117.fa</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.9098707688442281</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.09012923115557427</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.975566211253464e-13</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.9098707688442281</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83561.fa</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.933655381348318</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0663446186514854</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.965146390648522e-13</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.933655381348318</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83564.fa</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.838231805453646</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.1617681945461528</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2.011670553125542e-13</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.838231805453646</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84532.fa</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.9004835202493586</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.09951647975025107</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.90338589295762e-13</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.9004835202493586</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86544.fa</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.7755809784622236</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.2244190215376864</v>
-      </c>
-      <c r="D100" t="n">
-        <v>9.006666084243356e-14</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.7755809784622236</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>s__UMGS911 sp900545935</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
         <is>
           <t>s__UMGS911 sp900545935</t>
         </is>

--- a/outputs-HGR-r202/g__UMGS911.xlsx
+++ b/outputs-HGR-r202/g__UMGS911.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>s__UMGS911 sp900557415</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900557415</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>s__UMGS911 sp900557415</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900557415</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1857,6 +2147,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1881,6 +2176,11 @@
           <t>s__UMGS911 sp900557415</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900557415(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1905,6 +2205,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1929,6 +2234,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1953,6 +2263,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1977,6 +2292,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2001,6 +2321,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2025,6 +2350,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2049,6 +2379,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2073,6 +2408,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2097,6 +2437,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2121,6 +2466,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2145,6 +2495,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2169,6 +2524,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2193,6 +2553,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2217,6 +2582,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2241,6 +2611,11 @@
           <t>s__UMGS911 sp900557415</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900557415</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2265,6 +2640,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2289,6 +2669,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2313,6 +2698,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2337,6 +2727,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2361,6 +2756,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2385,6 +2785,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2409,6 +2814,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2433,6 +2843,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2457,6 +2872,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2481,6 +2901,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2505,6 +2930,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2529,6 +2959,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2553,6 +2988,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2577,6 +3017,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2601,6 +3046,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2625,6 +3075,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2649,6 +3104,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2673,6 +3133,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2697,6 +3162,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2721,6 +3191,11 @@
           <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900546695(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2745,6 +3220,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2769,6 +3249,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2793,6 +3278,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2817,6 +3307,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2841,6 +3336,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2865,6 +3365,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2889,6 +3394,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2913,6 +3423,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2937,6 +3452,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2961,6 +3481,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2985,6 +3510,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3009,6 +3539,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3033,6 +3568,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3057,6 +3597,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3081,6 +3626,11 @@
           <t>s__UMGS911 sp900546695</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900546695(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3105,6 +3655,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3129,6 +3684,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3153,6 +3713,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3177,6 +3742,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3201,6 +3771,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3225,6 +3800,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3249,6 +3829,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3273,6 +3858,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3297,6 +3887,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3321,6 +3916,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3345,6 +3945,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3369,6 +3974,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3393,6 +4003,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3417,6 +4032,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3441,6 +4061,11 @@
           <t>s__UMGS911 sp900545935</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3461,6 +4086,11 @@
         <v>0.7755809784622909</v>
       </c>
       <c r="F126" t="inlineStr">
+        <is>
+          <t>s__UMGS911 sp900545935</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>s__UMGS911 sp900545935</t>
         </is>

--- a/outputs-HGR-r202/g__UMGS911.xlsx
+++ b/outputs-HGR-r202/g__UMGS911.xlsx
@@ -1337,7 +1337,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900557415</t>
+          <t>s__UMGS911 sp900557415(reject)</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900546695</t>
+          <t>s__UMGS911 sp900546695(reject)</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>s__UMGS911 sp900545935</t>
+          <t>s__UMGS911 sp900545935(reject)</t>
         </is>
       </c>
     </row>
